--- a/predictions/confirmed/c4_train_predictions.xlsx
+++ b/predictions/confirmed/c4_train_predictions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\Praca dyplomowa\Excel\predictions\confirmed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\Praca dyplomowa\Excel\excel-prognozowanie\predictions\confirmed\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7886,7 +7886,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10191,7 +10190,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -12804,15 +12803,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1800225</xdr:colOff>
-      <xdr:row>602</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>605</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>616</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>619</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12834,15 +12833,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1819275</xdr:colOff>
-      <xdr:row>619</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>620</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>633</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>634</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13168,7 +13167,7 @@
   <dimension ref="A1:I635"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A602" workbookViewId="0">
-      <selection activeCell="I625" sqref="I625"/>
+      <selection activeCell="J623" sqref="J623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20066,15 +20065,15 @@
         <v>44465</v>
       </c>
       <c r="C572" s="3">
-        <f>_xlfn.FORECAST.ETS(A572,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" ref="C572:C601" si="9">_xlfn.FORECAST.ETS(A572,$B$2:$B$571,$A$2:$A$571,7,1)</f>
         <v>6.4720753427672095</v>
       </c>
       <c r="D572" s="4">
-        <f>C572-_xlfn.FORECAST.ETS.CONFINT(A572,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" ref="D572:D601" si="10">C572-_xlfn.FORECAST.ETS.CONFINT(A572,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
         <v>6.0114195906492256</v>
       </c>
       <c r="E572" s="4">
-        <f>C572+_xlfn.FORECAST.ETS.CONFINT(A572,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" ref="E572:E601" si="11">C572+_xlfn.FORECAST.ETS.CONFINT(A572,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
         <v>6.9327310948851935</v>
       </c>
       <c r="G572">
@@ -20095,27 +20094,27 @@
         <v>44466</v>
       </c>
       <c r="C573" s="3">
-        <f>_xlfn.FORECAST.ETS(A573,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.0355290435201736</v>
       </c>
       <c r="D573" s="4">
-        <f>C573-_xlfn.FORECAST.ETS.CONFINT(A573,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>5.4154718561174828</v>
       </c>
       <c r="E573" s="4">
-        <f>C573+_xlfn.FORECAST.ETS.CONFINT(A573,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>6.6555862309228644</v>
       </c>
       <c r="G573">
-        <f t="shared" ref="G573:G601" si="9">EXP(C573)-1</f>
+        <f t="shared" ref="G573:G601" si="12">EXP(C573)-1</f>
         <v>417.01990186985461</v>
       </c>
       <c r="H573" s="5">
-        <f t="shared" ref="H573:H601" si="10">EXP(D573)-1</f>
+        <f t="shared" ref="H573:H601" si="13">EXP(D573)-1</f>
         <v>223.85862156652422</v>
       </c>
       <c r="I573" s="5">
-        <f t="shared" ref="I573:I601" si="11">EXP(E573)-1</f>
+        <f t="shared" ref="I573:I601" si="14">EXP(E573)-1</f>
         <v>776.11335745952715</v>
       </c>
     </row>
@@ -20124,27 +20123,27 @@
         <v>44467</v>
       </c>
       <c r="C574" s="3">
-        <f>_xlfn.FORECAST.ETS(A574,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.6596041216752839</v>
       </c>
       <c r="D574" s="4">
-        <f>C574-_xlfn.FORECAST.ETS.CONFINT(A574,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>5.9131989283313606</v>
       </c>
       <c r="E574" s="4">
-        <f>C574+_xlfn.FORECAST.ETS.CONFINT(A574,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>7.4060093150192072</v>
       </c>
       <c r="G574">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>779.24199508522247</v>
       </c>
       <c r="H574" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>368.88750850036638</v>
       </c>
       <c r="I574" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1644.845174287537</v>
       </c>
     </row>
@@ -20153,27 +20152,27 @@
         <v>44468</v>
       </c>
       <c r="C575" s="3">
-        <f>_xlfn.FORECAST.ETS(A575,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.735589557474805</v>
       </c>
       <c r="D575" s="4">
-        <f>C575-_xlfn.FORECAST.ETS.CONFINT(A575,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>5.8810993367174458</v>
       </c>
       <c r="E575" s="4">
-        <f>C575+_xlfn.FORECAST.ETS.CONFINT(A575,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>7.5900797782321643</v>
       </c>
       <c r="G575">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>840.83965067203883</v>
       </c>
       <c r="H575" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>357.20281083896532</v>
       </c>
       <c r="I575" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1977.4713463966166</v>
       </c>
     </row>
@@ -20182,27 +20181,27 @@
         <v>44469</v>
       </c>
       <c r="C576" s="3">
-        <f>_xlfn.FORECAST.ETS(A576,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.7703382478512513</v>
       </c>
       <c r="D576" s="4">
-        <f>C576-_xlfn.FORECAST.ETS.CONFINT(A576,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>5.8197753545008322</v>
       </c>
       <c r="E576" s="4">
-        <f>C576+_xlfn.FORECAST.ETS.CONFINT(A576,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>7.7209011412016704</v>
       </c>
       <c r="G576">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>870.60666321640281</v>
       </c>
       <c r="H576" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>335.89636287698977</v>
       </c>
       <c r="I576" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2253.9907303113832</v>
       </c>
     </row>
@@ -20211,27 +20210,27 @@
         <v>44470</v>
       </c>
       <c r="C577" s="3">
-        <f>_xlfn.FORECAST.ETS(A577,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.7621249309927816</v>
       </c>
       <c r="D577" s="4">
-        <f>C577-_xlfn.FORECAST.ETS.CONFINT(A577,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>5.7241605926879888</v>
       </c>
       <c r="E577" s="4">
-        <f>C577+_xlfn.FORECAST.ETS.CONFINT(A577,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>7.8000892692975743</v>
       </c>
       <c r="G577">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>863.47719986479592</v>
       </c>
       <c r="H577" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>305.17615084682467</v>
       </c>
       <c r="I577" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2439.8198581735774</v>
       </c>
     </row>
@@ -20240,27 +20239,27 @@
         <v>44471</v>
       </c>
       <c r="C578" s="3">
-        <f>_xlfn.FORECAST.ETS(A578,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.8555697451783857</v>
       </c>
       <c r="D578" s="4">
-        <f>C578-_xlfn.FORECAST.ETS.CONFINT(A578,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>5.736840813796543</v>
       </c>
       <c r="E578" s="4">
-        <f>C578+_xlfn.FORECAST.ETS.CONFINT(A578,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>7.9742986765602284</v>
       </c>
       <c r="G578">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>948.15275058547797</v>
       </c>
       <c r="H578" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>309.08325123503613</v>
       </c>
       <c r="I578" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2904.3195887098191</v>
       </c>
     </row>
@@ -20269,27 +20268,27 @@
         <v>44472</v>
       </c>
       <c r="C579" s="3">
-        <f>_xlfn.FORECAST.ETS(A579,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.5054772539012342</v>
       </c>
       <c r="D579" s="4">
-        <f>C579-_xlfn.FORECAST.ETS.CONFINT(A579,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>5.2945634552071867</v>
       </c>
       <c r="E579" s="4">
-        <f>C579+_xlfn.FORECAST.ETS.CONFINT(A579,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>7.7163910525952817</v>
       </c>
       <c r="G579">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>667.7947781174264</v>
       </c>
       <c r="H579" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>198.25062515520054</v>
       </c>
       <c r="I579" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2243.843422141018</v>
       </c>
     </row>
@@ -20298,27 +20297,27 @@
         <v>44473</v>
       </c>
       <c r="C580" s="3">
-        <f>_xlfn.FORECAST.ETS(A580,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.0689309546541983</v>
       </c>
       <c r="D580" s="4">
-        <f>C580-_xlfn.FORECAST.ETS.CONFINT(A580,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>4.7878116950654697</v>
       </c>
       <c r="E580" s="4">
-        <f>C580+_xlfn.FORECAST.ETS.CONFINT(A580,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>7.3500502142429269</v>
       </c>
       <c r="G580">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>431.2183734638171</v>
       </c>
       <c r="H580" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>119.03840041683378</v>
       </c>
       <c r="I580" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1555.2746730296292</v>
       </c>
     </row>
@@ -20327,27 +20326,27 @@
         <v>44474</v>
       </c>
       <c r="C581" s="3">
-        <f>_xlfn.FORECAST.ETS(A581,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.6930060328093086</v>
       </c>
       <c r="D581" s="4">
-        <f>C581-_xlfn.FORECAST.ETS.CONFINT(A581,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>5.3451905925974472</v>
       </c>
       <c r="E581" s="4">
-        <f>C581+_xlfn.FORECAST.ETS.CONFINT(A581,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>8.04082147302117</v>
       </c>
       <c r="G581">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>805.7437088889908</v>
       </c>
       <c r="H581" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>208.59782858680518</v>
       </c>
       <c r="I581" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3104.1629504950733</v>
       </c>
     </row>
@@ -20356,27 +20355,27 @@
         <v>44475</v>
       </c>
       <c r="C582" s="3">
-        <f>_xlfn.FORECAST.ETS(A582,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.7689914686088297</v>
       </c>
       <c r="D582" s="4">
-        <f>C582-_xlfn.FORECAST.ETS.CONFINT(A582,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>5.3574914285705519</v>
       </c>
       <c r="E582" s="4">
-        <f>C582+_xlfn.FORECAST.ETS.CONFINT(A582,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>8.1804915086471084</v>
       </c>
       <c r="G582">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>869.43359156641191</v>
       </c>
       <c r="H582" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>211.19197949887885</v>
       </c>
       <c r="I582" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3569.6092149029937</v>
       </c>
     </row>
@@ -20385,27 +20384,27 @@
         <v>44476</v>
       </c>
       <c r="C583" s="3">
-        <f>_xlfn.FORECAST.ETS(A583,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.803740158985276</v>
       </c>
       <c r="D583" s="4">
-        <f>C583-_xlfn.FORECAST.ETS.CONFINT(A583,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>5.3311761745824544</v>
       </c>
       <c r="E583" s="4">
-        <f>C583+_xlfn.FORECAST.ETS.CONFINT(A583,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>8.2763041433880975</v>
       </c>
       <c r="G583">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>900.21167100055266</v>
       </c>
       <c r="H583" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>205.680924102132</v>
       </c>
       <c r="I583" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3928.6441095176538</v>
       </c>
     </row>
@@ -20414,27 +20413,27 @@
         <v>44477</v>
       </c>
       <c r="C584" s="3">
-        <f>_xlfn.FORECAST.ETS(A584,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.7955268421268062</v>
       </c>
       <c r="D584" s="4">
-        <f>C584-_xlfn.FORECAST.ETS.CONFINT(A584,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>5.264205889263657</v>
       </c>
       <c r="E584" s="4">
-        <f>C584+_xlfn.FORECAST.ETS.CONFINT(A584,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>8.3268477949899555</v>
       </c>
       <c r="G584">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>892.84004816700428</v>
       </c>
       <c r="H584" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>192.29275197533383</v>
       </c>
       <c r="I584" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4132.3677726785481</v>
       </c>
     </row>
@@ -20443,27 +20442,27 @@
         <v>44478</v>
       </c>
       <c r="C585" s="3">
-        <f>_xlfn.FORECAST.ETS(A585,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.8889716563124095</v>
       </c>
       <c r="D585" s="4">
-        <f>C585-_xlfn.FORECAST.ETS.CONFINT(A585,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>5.3009444824304053</v>
       </c>
       <c r="E585" s="4">
-        <f>C585+_xlfn.FORECAST.ETS.CONFINT(A585,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>8.4769988301944146</v>
       </c>
       <c r="G585">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>980.39169018437462</v>
       </c>
       <c r="H585" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>199.52611395504564</v>
       </c>
       <c r="I585" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4802.0135854468354</v>
       </c>
     </row>
@@ -20472,27 +20471,27 @@
         <v>44479</v>
       </c>
       <c r="C586" s="3">
-        <f>_xlfn.FORECAST.ETS(A586,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.538879165035258</v>
       </c>
       <c r="D586" s="4">
-        <f>C586-_xlfn.FORECAST.ETS.CONFINT(A586,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>4.8837093289921389</v>
       </c>
       <c r="E586" s="4">
-        <f>C586+_xlfn.FORECAST.ETS.CONFINT(A586,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>8.1940490010783762</v>
       </c>
       <c r="G586">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>690.51107372156946</v>
       </c>
       <c r="H586" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>131.11983200550375</v>
       </c>
       <c r="I586" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3618.3473592945338</v>
       </c>
     </row>
@@ -20501,27 +20500,27 @@
         <v>44480</v>
       </c>
       <c r="C587" s="3">
-        <f>_xlfn.FORECAST.ETS(A587,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.1023328657882221</v>
       </c>
       <c r="D587" s="4">
-        <f>C587-_xlfn.FORECAST.ETS.CONFINT(A587,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>4.3943371259620214</v>
       </c>
       <c r="E587" s="4">
-        <f>C587+_xlfn.FORECAST.ETS.CONFINT(A587,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>7.8103286056144228</v>
       </c>
       <c r="G587">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>445.899110602321</v>
       </c>
       <c r="H587" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>79.990926182729709</v>
       </c>
       <c r="I587" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2464.9406240959011</v>
       </c>
     </row>
@@ -20530,27 +20529,27 @@
         <v>44481</v>
       </c>
       <c r="C588" s="3">
-        <f>_xlfn.FORECAST.ETS(A588,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.7264079439433324</v>
       </c>
       <c r="D588" s="4">
-        <f>C588-_xlfn.FORECAST.ETS.CONFINT(A588,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>4.9670614023555739</v>
       </c>
       <c r="E588" s="4">
-        <f>C588+_xlfn.FORECAST.ETS.CONFINT(A588,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>8.4857544855310909</v>
       </c>
       <c r="G588">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>833.1455803860905</v>
       </c>
       <c r="H588" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>142.60427155200216</v>
       </c>
       <c r="I588" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4844.25175858494</v>
       </c>
     </row>
@@ -20559,27 +20558,27 @@
         <v>44482</v>
       </c>
       <c r="C589" s="3">
-        <f>_xlfn.FORECAST.ETS(A589,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.8023933797428535</v>
       </c>
       <c r="D589" s="4">
-        <f>C589-_xlfn.FORECAST.ETS.CONFINT(A589,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>4.9930454228944452</v>
       </c>
       <c r="E589" s="4">
-        <f>C589+_xlfn.FORECAST.ETS.CONFINT(A589,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>8.6117413365912618</v>
       </c>
       <c r="G589">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>898.99875477754995</v>
       </c>
       <c r="H589" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>146.38458912438983</v>
       </c>
       <c r="I589" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5494.8104060494243</v>
       </c>
     </row>
@@ -20588,27 +20587,27 @@
         <v>44483</v>
       </c>
       <c r="C590" s="3">
-        <f>_xlfn.FORECAST.ETS(A590,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.8371420701192998</v>
       </c>
       <c r="D590" s="4">
-        <f>C590-_xlfn.FORECAST.ETS.CONFINT(A590,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>4.9790330317859706</v>
       </c>
       <c r="E590" s="4">
-        <f>C590+_xlfn.FORECAST.ETS.CONFINT(A590,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>8.6952511084526289</v>
       </c>
       <c r="G590">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>930.82224301784458</v>
       </c>
       <c r="H590" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>144.33378053995472</v>
       </c>
       <c r="I590" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5973.4726199020097</v>
       </c>
     </row>
@@ -20617,27 +20616,27 @@
         <v>44484</v>
       </c>
       <c r="C591" s="3">
-        <f>_xlfn.FORECAST.ETS(A591,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.8289287532608309</v>
       </c>
       <c r="D591" s="4">
-        <f>C591-_xlfn.FORECAST.ETS.CONFINT(A591,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>4.9232036456029213</v>
       </c>
       <c r="E591" s="4">
-        <f>C591+_xlfn.FORECAST.ETS.CONFINT(A591,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>8.7346538609187405</v>
       </c>
       <c r="G591">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>923.20023550898532</v>
       </c>
       <c r="H591" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>136.44222480972405</v>
       </c>
       <c r="I591" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6213.5827201018428</v>
       </c>
     </row>
@@ -20646,27 +20645,27 @@
         <v>44485</v>
       </c>
       <c r="C592" s="3">
-        <f>_xlfn.FORECAST.ETS(A592,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.9223735674464342</v>
       </c>
       <c r="D592" s="4">
-        <f>C592-_xlfn.FORECAST.ETS.CONFINT(A592,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>4.9700935116593108</v>
       </c>
       <c r="E592" s="4">
-        <f>C592+_xlfn.FORECAST.ETS.CONFINT(A592,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>8.8746536232335576</v>
       </c>
       <c r="G592">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1013.7256581923667</v>
       </c>
       <c r="H592" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>143.04035619387918</v>
       </c>
       <c r="I592" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7147.4699746784318</v>
       </c>
     </row>
@@ -20675,27 +20674,27 @@
         <v>44486</v>
       </c>
       <c r="C593" s="3">
-        <f>_xlfn.FORECAST.ETS(A593,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.5722810761692827</v>
       </c>
       <c r="D593" s="4">
-        <f>C593-_xlfn.FORECAST.ETS.CONFINT(A593,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>4.564253643948617</v>
       </c>
       <c r="E593" s="4">
-        <f>C593+_xlfn.FORECAST.ETS.CONFINT(A593,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>8.5803085083899475</v>
       </c>
       <c r="G593">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>713.99895143559058</v>
       </c>
       <c r="H593" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>94.990923867224637</v>
       </c>
       <c r="I593" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5324.7483099248184</v>
       </c>
     </row>
@@ -20704,27 +20703,27 @@
         <v>44487</v>
       </c>
       <c r="C594" s="3">
-        <f>_xlfn.FORECAST.ETS(A594,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.1357347769222468</v>
       </c>
       <c r="D594" s="4">
-        <f>C594-_xlfn.FORECAST.ETS.CONFINT(A594,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>4.083281328648976</v>
       </c>
       <c r="E594" s="4">
-        <f>C594+_xlfn.FORECAST.ETS.CONFINT(A594,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>8.1881882251955176</v>
       </c>
       <c r="G594">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>461.07849392562912</v>
       </c>
       <c r="H594" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>58.339864336234136</v>
       </c>
       <c r="I594" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3597.1972142494456</v>
       </c>
     </row>
@@ -20733,27 +20732,27 @@
         <v>44488</v>
       </c>
       <c r="C595" s="3">
-        <f>_xlfn.FORECAST.ETS(A595,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.7598098550773571</v>
       </c>
       <c r="D595" s="4">
-        <f>C595-_xlfn.FORECAST.ETS.CONFINT(A595,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>4.6637784473990322</v>
       </c>
       <c r="E595" s="4">
-        <f>C595+_xlfn.FORECAST.ETS.CONFINT(A595,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>8.855841262755682</v>
       </c>
       <c r="G595">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>861.47818434911574</v>
       </c>
       <c r="H595" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>105.03597755262341</v>
       </c>
       <c r="I595" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7014.2474249504721</v>
       </c>
     </row>
@@ -20762,27 +20761,27 @@
         <v>44489</v>
       </c>
       <c r="C596" s="3">
-        <f>_xlfn.FORECAST.ETS(A596,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.8357952908768782</v>
       </c>
       <c r="D596" s="4">
-        <f>C596-_xlfn.FORECAST.ETS.CONFINT(A596,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>4.696982043561075</v>
       </c>
       <c r="E596" s="4">
-        <f>C596+_xlfn.FORECAST.ETS.CONFINT(A596,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>8.9746085381926815</v>
       </c>
       <c r="G596">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>929.56812886033981</v>
       </c>
       <c r="H596" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>108.61585687454053</v>
       </c>
       <c r="I596" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7898.9249482832984</v>
       </c>
     </row>
@@ -20791,27 +20790,27 @@
         <v>44490</v>
       </c>
       <c r="C597" s="3">
-        <f>_xlfn.FORECAST.ETS(A597,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.8705439812533244</v>
       </c>
       <c r="D597" s="4">
-        <f>C597-_xlfn.FORECAST.ETS.CONFINT(A597,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>4.6896980636114858</v>
       </c>
       <c r="E597" s="4">
-        <f>C597+_xlfn.FORECAST.ETS.CONFINT(A597,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>9.0513898988951631</v>
       </c>
       <c r="G597">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>962.4725342813224</v>
       </c>
       <c r="H597" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>107.82031803275908</v>
       </c>
       <c r="I597" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8529.3860629687406</v>
       </c>
     </row>
@@ -20820,27 +20819,27 @@
         <v>44491</v>
       </c>
       <c r="C598" s="3">
-        <f>_xlfn.FORECAST.ETS(A598,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.8623306643948547</v>
       </c>
       <c r="D598" s="4">
-        <f>C598-_xlfn.FORECAST.ETS.CONFINT(A598,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>4.6401586379338253</v>
       </c>
       <c r="E598" s="4">
-        <f>C598+_xlfn.FORECAST.ETS.CONFINT(A598,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>9.084502690855885</v>
       </c>
       <c r="G598">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>954.59163752671247</v>
       </c>
       <c r="H598" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>102.56077494760807</v>
       </c>
       <c r="I598" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8816.5796113244105</v>
       </c>
     </row>
@@ -20849,27 +20848,27 @@
         <v>44492</v>
       </c>
       <c r="C599" s="3">
-        <f>_xlfn.FORECAST.ETS(A599,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.955775478580458</v>
       </c>
       <c r="D599" s="4">
-        <f>C599-_xlfn.FORECAST.ETS.CONFINT(A599,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>4.6929450988627126</v>
       </c>
       <c r="E599" s="4">
-        <f>C599+_xlfn.FORECAST.ETS.CONFINT(A599,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>9.2186058582982042</v>
       </c>
       <c r="G599">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1048.1918483643228</v>
       </c>
       <c r="H599" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>108.1742357221147</v>
       </c>
       <c r="I599" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10081.997397628338</v>
       </c>
     </row>
@@ -20878,27 +20877,27 @@
         <v>44493</v>
       </c>
       <c r="C600" s="3">
-        <f>_xlfn.FORECAST.ETS(A600,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.6056829873033065</v>
       </c>
       <c r="D600" s="4">
-        <f>C600-_xlfn.FORECAST.ETS.CONFINT(A600,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>4.2939263507102474</v>
       </c>
       <c r="E600" s="4">
-        <f>C600+_xlfn.FORECAST.ETS.CONFINT(A600,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>8.9174396238963656</v>
       </c>
       <c r="G600">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>738.28461883147361</v>
       </c>
       <c r="H600" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>72.253523615804667</v>
       </c>
       <c r="I600" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7459.9618850181714</v>
       </c>
     </row>
@@ -20907,27 +20906,27 @@
         <v>44494</v>
       </c>
       <c r="C601" s="3">
-        <f>_xlfn.FORECAST.ETS(A601,$B$2:$B$571,$A$2:$A$571,7,1)</f>
+        <f t="shared" si="9"/>
         <v>6.1691366880562706</v>
       </c>
       <c r="D601" s="4">
-        <f>C601-_xlfn.FORECAST.ETS.CONFINT(A601,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="10"/>
         <v>3.8181030304419004</v>
       </c>
       <c r="E601" s="4">
-        <f>C601+_xlfn.FORECAST.ETS.CONFINT(A601,$B$2:$B$571,$A$2:$A$571,0.95,7,1)</f>
+        <f t="shared" si="11"/>
         <v>8.5201703456706408</v>
       </c>
       <c r="G601">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>476.77346045912805</v>
       </c>
       <c r="H601" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>44.517780527307004</v>
       </c>
       <c r="I601" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5013.9079518969047</v>
       </c>
     </row>
@@ -20962,7 +20961,7 @@
         <v>421</v>
       </c>
       <c r="C607">
-        <f t="shared" ref="C607:C635" si="12">G573</f>
+        <f t="shared" ref="C607:C635" si="15">G573</f>
         <v>417.01990186985461</v>
       </c>
     </row>
@@ -20974,7 +20973,7 @@
         <v>975</v>
       </c>
       <c r="C608">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>779.24199508522247</v>
       </c>
     </row>
@@ -20986,7 +20985,7 @@
         <v>1234</v>
       </c>
       <c r="C609">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>840.83965067203883</v>
       </c>
     </row>
@@ -20998,7 +20997,7 @@
         <v>1208</v>
       </c>
       <c r="C610">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>870.60666321640281</v>
       </c>
     </row>
@@ -21010,7 +21009,7 @@
         <v>1362</v>
       </c>
       <c r="C611">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>863.47719986479592</v>
       </c>
     </row>
@@ -21022,7 +21021,7 @@
         <v>1344</v>
       </c>
       <c r="C612">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>948.15275058547797</v>
       </c>
     </row>
@@ -21034,7 +21033,7 @@
         <v>1090</v>
       </c>
       <c r="C613">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>667.7947781174264</v>
       </c>
     </row>
@@ -21046,7 +21045,7 @@
         <v>684</v>
       </c>
       <c r="C614">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>431.2183734638171</v>
       </c>
     </row>
@@ -21058,7 +21057,7 @@
         <v>1325</v>
       </c>
       <c r="C615">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>805.7437088889908</v>
       </c>
     </row>
@@ -21070,7 +21069,7 @@
         <v>2085</v>
       </c>
       <c r="C616">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>869.43359156641191</v>
       </c>
     </row>
@@ -21082,7 +21081,7 @@
         <v>2007</v>
       </c>
       <c r="C617">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>900.21167100055266</v>
       </c>
     </row>
@@ -21094,7 +21093,7 @@
         <v>1895</v>
       </c>
       <c r="C618">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>892.84004816700428</v>
       </c>
     </row>
@@ -21106,7 +21105,7 @@
         <v>2012</v>
       </c>
       <c r="C619">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>980.39169018437462</v>
       </c>
     </row>
@@ -21118,7 +21117,7 @@
         <v>1527</v>
       </c>
       <c r="C620">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>690.51107372156946</v>
       </c>
     </row>
@@ -21130,7 +21129,7 @@
         <v>903</v>
       </c>
       <c r="C621">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>445.899110602321</v>
       </c>
     </row>
@@ -21142,7 +21141,7 @@
         <v>2118</v>
       </c>
       <c r="C622">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>833.1455803860905</v>
       </c>
     </row>
@@ -21154,7 +21153,7 @@
         <v>2640</v>
       </c>
       <c r="C623">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>898.99875477754995</v>
       </c>
     </row>
@@ -21166,7 +21165,7 @@
         <v>3000</v>
       </c>
       <c r="C624">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>930.82224301784458</v>
       </c>
     </row>
@@ -21178,7 +21177,7 @@
         <v>2771</v>
       </c>
       <c r="C625">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>923.20023550898532</v>
       </c>
     </row>
@@ -21190,7 +21189,7 @@
         <v>3236</v>
       </c>
       <c r="C626">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1013.7256581923667</v>
       </c>
     </row>
@@ -21202,7 +21201,7 @@
         <v>2523</v>
       </c>
       <c r="C627">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>713.99895143559058</v>
       </c>
     </row>
@@ -21214,7 +21213,7 @@
         <v>1537</v>
       </c>
       <c r="C628">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>461.07849392562912</v>
       </c>
     </row>
@@ -21226,7 +21225,7 @@
         <v>3931</v>
       </c>
       <c r="C629">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>861.47818434911574</v>
       </c>
     </row>
@@ -21238,7 +21237,7 @@
         <v>5559</v>
       </c>
       <c r="C630">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>929.56812886033981</v>
       </c>
     </row>
@@ -21250,7 +21249,7 @@
         <v>5592</v>
       </c>
       <c r="C631">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>962.4725342813224</v>
       </c>
     </row>
@@ -21262,7 +21261,7 @@
         <v>5706</v>
       </c>
       <c r="C632">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>954.59163752671247</v>
       </c>
     </row>
@@ -21274,7 +21273,7 @@
         <v>6274</v>
       </c>
       <c r="C633">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1048.1918483643228</v>
       </c>
     </row>
@@ -21286,7 +21285,7 @@
         <v>4728</v>
       </c>
       <c r="C634">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>738.28461883147361</v>
       </c>
     </row>
@@ -21298,7 +21297,7 @@
         <v>2950</v>
       </c>
       <c r="C635">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>476.77346045912805</v>
       </c>
     </row>
